--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifna11-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ifna11</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H2">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I2">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J2">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.17918166666666</v>
+        <v>30.224788</v>
       </c>
       <c r="N2">
-        <v>75.53754499999999</v>
+        <v>90.674364</v>
       </c>
       <c r="O2">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="P2">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="Q2">
-        <v>0.4492049939938889</v>
+        <v>0.5392202928493334</v>
       </c>
       <c r="R2">
-        <v>4.042844945945</v>
+        <v>4.852982635644</v>
       </c>
       <c r="S2">
-        <v>0.2386164754390736</v>
+        <v>0.1731293301737933</v>
       </c>
       <c r="T2">
-        <v>0.2386164754390737</v>
+        <v>0.1731293301737933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H3">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I3">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J3">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.25845733333334</v>
+        <v>20.25845733333333</v>
       </c>
       <c r="N3">
         <v>60.775372</v>
       </c>
       <c r="O3">
-        <v>0.2114583195065722</v>
+        <v>0.2176368352473959</v>
       </c>
       <c r="P3">
-        <v>0.2114583195065722</v>
+        <v>0.217636835247396</v>
       </c>
       <c r="Q3">
-        <v>0.3614176316457779</v>
+        <v>0.3614176316457778</v>
       </c>
       <c r="R3">
         <v>3.252758684812</v>
       </c>
       <c r="S3">
-        <v>0.1919840664683843</v>
+        <v>0.1160416128799438</v>
       </c>
       <c r="T3">
-        <v>0.1919840664683843</v>
+        <v>0.1160416128799438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H4">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I4">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J4">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.20042266666667</v>
+        <v>12.725178</v>
       </c>
       <c r="N4">
-        <v>36.601268</v>
+        <v>38.175534</v>
       </c>
       <c r="O4">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="P4">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="Q4">
-        <v>0.2176596071808889</v>
+        <v>0.227021417246</v>
       </c>
       <c r="R4">
-        <v>1.958936464628</v>
+        <v>2.043192755214</v>
       </c>
       <c r="S4">
-        <v>0.1156201934648651</v>
+        <v>0.07289055405392059</v>
       </c>
       <c r="T4">
-        <v>0.1156201934648651</v>
+        <v>0.0728905540539206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H5">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I5">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J5">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.16548666666667</v>
+        <v>29.87534766666667</v>
       </c>
       <c r="N5">
-        <v>114.49646</v>
+        <v>89.62604300000001</v>
       </c>
       <c r="O5">
-        <v>0.3983723706545385</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="P5">
-        <v>0.3983723706545386</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="Q5">
-        <v>0.6808850039622223</v>
+        <v>0.5329861608225556</v>
       </c>
       <c r="R5">
-        <v>6.127965035660001</v>
+        <v>4.796875447403001</v>
       </c>
       <c r="S5">
-        <v>0.361684268868559</v>
+        <v>0.1711277157755151</v>
       </c>
       <c r="T5">
-        <v>0.3616842688685591</v>
+        <v>0.1711277157755151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.005429</v>
       </c>
       <c r="I6">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J6">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.17918166666666</v>
+        <v>30.224788</v>
       </c>
       <c r="N6">
-        <v>75.53754499999999</v>
+        <v>90.674364</v>
       </c>
       <c r="O6">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="P6">
-        <v>0.2628209717145306</v>
+        <v>0.3247052378228209</v>
       </c>
       <c r="Q6">
-        <v>0.0455659257561111</v>
+        <v>0.05469679135066666</v>
       </c>
       <c r="R6">
-        <v>0.410093331805</v>
+        <v>0.4922711221559999</v>
       </c>
       <c r="S6">
-        <v>0.02420449627545693</v>
+        <v>0.01756168856175191</v>
       </c>
       <c r="T6">
-        <v>0.02420449627545694</v>
+        <v>0.01756168856175191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>0.005429</v>
       </c>
       <c r="I7">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J7">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.25845733333334</v>
+        <v>20.25845733333333</v>
       </c>
       <c r="N7">
         <v>60.775372</v>
       </c>
       <c r="O7">
-        <v>0.2114583195065722</v>
+        <v>0.2176368352473959</v>
       </c>
       <c r="P7">
-        <v>0.2114583195065722</v>
+        <v>0.217636835247396</v>
       </c>
       <c r="Q7">
-        <v>0.03666105495422223</v>
+        <v>0.03666105495422222</v>
       </c>
       <c r="R7">
         <v>0.329949494588</v>
       </c>
       <c r="S7">
-        <v>0.01947425303818796</v>
+        <v>0.01177089210450505</v>
       </c>
       <c r="T7">
-        <v>0.01947425303818797</v>
+        <v>0.01177089210450505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,10 +915,10 @@
         <v>0.005429</v>
       </c>
       <c r="I8">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J8">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.20042266666667</v>
+        <v>12.725178</v>
       </c>
       <c r="N8">
-        <v>36.601268</v>
+        <v>38.175534</v>
       </c>
       <c r="O8">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="P8">
-        <v>0.1273483381243586</v>
+        <v>0.1367067305427495</v>
       </c>
       <c r="Q8">
-        <v>0.02207869821911111</v>
+        <v>0.023028330454</v>
       </c>
       <c r="R8">
-        <v>0.198708283972</v>
+        <v>0.207254974086</v>
       </c>
       <c r="S8">
-        <v>0.01172814465949352</v>
+        <v>0.00739378595240625</v>
       </c>
       <c r="T8">
-        <v>0.01172814465949352</v>
+        <v>0.007393785952406251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.005429</v>
       </c>
       <c r="I9">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J9">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.16548666666667</v>
+        <v>29.87534766666667</v>
       </c>
       <c r="N9">
-        <v>114.49646</v>
+        <v>89.62604300000001</v>
       </c>
       <c r="O9">
-        <v>0.3983723706545385</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="P9">
-        <v>0.3983723706545386</v>
+        <v>0.3209511963870337</v>
       </c>
       <c r="Q9">
-        <v>0.06906680903777777</v>
+        <v>0.05406442082744445</v>
       </c>
       <c r="R9">
-        <v>0.6216012813399999</v>
+        <v>0.486579787447</v>
       </c>
       <c r="S9">
-        <v>0.03668810178597946</v>
+        <v>0.01735865116394072</v>
       </c>
       <c r="T9">
-        <v>0.03668810178597947</v>
+        <v>0.01735865116394072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.041429</v>
+      </c>
+      <c r="I10">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J10">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.224788</v>
+      </c>
+      <c r="N10">
+        <v>90.674364</v>
+      </c>
+      <c r="O10">
+        <v>0.3247052378228209</v>
+      </c>
+      <c r="P10">
+        <v>0.3247052378228209</v>
+      </c>
+      <c r="Q10">
+        <v>0.4173942473506667</v>
+      </c>
+      <c r="R10">
+        <v>3.756548226156</v>
+      </c>
+      <c r="S10">
+        <v>0.1340142190872757</v>
+      </c>
+      <c r="T10">
+        <v>0.1340142190872757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.041429</v>
+      </c>
+      <c r="I11">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J11">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.25845733333333</v>
+      </c>
+      <c r="N11">
+        <v>60.775372</v>
+      </c>
+      <c r="O11">
+        <v>0.2176368352473959</v>
+      </c>
+      <c r="P11">
+        <v>0.217636835247396</v>
+      </c>
+      <c r="Q11">
+        <v>0.2797625429542222</v>
+      </c>
+      <c r="R11">
+        <v>2.517862886588</v>
+      </c>
+      <c r="S11">
+        <v>0.08982433026294709</v>
+      </c>
+      <c r="T11">
+        <v>0.08982433026294712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.041429</v>
+      </c>
+      <c r="I12">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J12">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.725178</v>
+      </c>
+      <c r="N12">
+        <v>38.175534</v>
+      </c>
+      <c r="O12">
+        <v>0.1367067305427495</v>
+      </c>
+      <c r="P12">
+        <v>0.1367067305427495</v>
+      </c>
+      <c r="Q12">
+        <v>0.175730466454</v>
+      </c>
+      <c r="R12">
+        <v>1.581574198086</v>
+      </c>
+      <c r="S12">
+        <v>0.05642239053642264</v>
+      </c>
+      <c r="T12">
+        <v>0.05642239053642266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.041429</v>
+      </c>
+      <c r="I13">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J13">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.87534766666667</v>
+      </c>
+      <c r="N13">
+        <v>89.62604300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.3209511963870337</v>
+      </c>
+      <c r="P13">
+        <v>0.3209511963870337</v>
+      </c>
+      <c r="Q13">
+        <v>0.4125685928274445</v>
+      </c>
+      <c r="R13">
+        <v>3.713117335447</v>
+      </c>
+      <c r="S13">
+        <v>0.1324648294475779</v>
+      </c>
+      <c r="T13">
+        <v>0.1324648294475779</v>
       </c>
     </row>
   </sheetData>
